--- a/VMat/Projects.xlsx
+++ b/VMat/Projects.xlsx
@@ -1,100 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="288" yWindow="396" windowWidth="22692" windowHeight="10584"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="Machines">Sheet1!$A$6:$I$9</definedName>
-    <definedName name="Project_Machines">Sheet1!$A$12:$B$15</definedName>
-    <definedName name="Projects">Sheet1!$A$1:$C$3</definedName>
-  </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
-  <si>
-    <t>ProjectName</t>
-  </si>
-  <si>
-    <t>HostName</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>gapdev</t>
-  </si>
-  <si>
-    <t>gapsrvindyvm1.gap5.com</t>
-  </si>
-  <si>
-    <t>gapdev1234</t>
-  </si>
-  <si>
-    <t>glolz</t>
-  </si>
-  <si>
-    <t>glolz0000</t>
-  </si>
-  <si>
-    <t>glolz5555</t>
-  </si>
-  <si>
-    <t>MachineName</t>
-  </si>
-  <si>
-    <t>ISOFile</t>
-  </si>
-  <si>
-    <t>IPAddress</t>
-  </si>
-  <si>
-    <t>CreationDate</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>ShutdownTime</t>
-  </si>
-  <si>
-    <t>BackupTime</t>
-  </si>
-  <si>
-    <t>ArchiveTime</t>
-  </si>
-  <si>
-    <t>fakewindowsserver</t>
-  </si>
-  <si>
-    <t>192.168.1.100</t>
-  </si>
-  <si>
-    <t>Nov. 12, 2008</t>
-  </si>
-  <si>
-    <t>192.168.1.101</t>
-  </si>
-  <si>
-    <t>Nov. 10, 2005</t>
-  </si>
-  <si>
-    <t>192.168.1.102</t>
-  </si>
-  <si>
-    <t>Jan. 8, 2006</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -128,15 +46,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -432,196 +349,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D1:E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
